--- a/biology/Botanique/Erica_arborescens/Erica_arborescens.xlsx
+++ b/biology/Botanique/Erica_arborescens/Erica_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erica arborescens
 Le branle filao (Erica arborescens) est une espèce de bruyères arborescentes de la famille des Ericaceae. Elle est endémique de l'île de la Réunion. Elle est parfois appelée branle vert.
